--- a/docs/画面項目定義書/mo_backup_recover.xlsx
+++ b/docs/画面項目定義書/mo_backup_recover.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31CF7CF-36F5-4369-B5AA-E9A91E884C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EA812-16C1-4888-B333-EFD91547C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>仮想マシン管理ダッシュボードへ遷移</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
@@ -99,38 +95,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力覧「バックアップ対象の仮想マシン」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>作成済み仮想マシンを取得し、一覧で表示</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイズ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>バックアップ復元モーダル</t>
     <rPh sb="6" eb="8">
       <t>フクゲン</t>
@@ -201,13 +165,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>回復先ストレージ</t>
-    <rPh sb="0" eb="3">
-      <t>カイフクサキ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>復元が完了/仮想マシン管理ダッシュボードへ遷移</t>
     <rPh sb="0" eb="2">
       <t>フクゲン</t>
@@ -220,6 +177,51 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>回復先VM</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクサキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プルダウンメニュー「回復先仮想マシン」</t>
+    <rPh sb="10" eb="13">
+      <t>カイフクサキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーエンティティより、
+作成済み仮想マシンを取得し、
+プルダウンメニューの項目として一覧で表示</t>
+    <rPh sb="14" eb="17">
+      <t>サクセイズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -526,7 +528,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,11 +619,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1074,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1141,11 +1140,11 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1196,7 +1195,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="29"/>
     </row>
@@ -1205,18 +1204,18 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
@@ -1235,7 +1234,7 @@
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
@@ -1243,14 +1242,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -1260,14 +1259,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
@@ -1277,14 +1276,14 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="27"/>
-      <c r="E14" s="33" t="s">
-        <v>16</v>
+      <c r="E14" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -1293,31 +1292,31 @@
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>28</v>
+      <c r="B15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="39">
       <c r="A16" s="24">
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13">

--- a/docs/画面項目定義書/mo_backup_recover.xlsx
+++ b/docs/画面項目定義書/mo_backup_recover.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EA812-16C1-4888-B333-EFD91547C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2A1DA-7889-496C-954F-34FBF351A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>日本工学院</t>
   </si>
@@ -202,25 +202,35 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーエンティティより、
+    <t>仮想マシンエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより、
 作成済み仮想マシンを取得し、
 プルダウンメニューの項目として一覧で表示</t>
-    <rPh sb="14" eb="17">
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
       <t>サクセイズ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="19" eb="21">
       <t>カソウ</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="25" eb="27">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="40" eb="42">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="45" eb="47">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="48" eb="50">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -615,13 +625,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1073,21 +1083,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1108,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1107,7 +1117,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1116,7 +1126,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1125,11 +1135,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1138,11 +1148,11 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1161,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1160,7 +1170,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1199,7 +1209,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:7" ht="24">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="24">
         <v>2</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1254,7 +1264,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="24">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1288,7 +1298,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39">
+    <row r="16" spans="1:7" ht="40.5">
       <c r="A16" s="24">
         <v>8</v>
       </c>
@@ -1313,18 +1323,18 @@
         <v>15</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+      <c r="G16" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="24">
         <v>10</v>
       </c>
@@ -1332,17 +1342,17 @@
       <c r="C18" s="23"/>
       <c r="E18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1353,7 +1363,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1364,7 +1374,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1375,21 +1385,21 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="24">
         <v>16</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1398,7 +1408,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -1407,7 +1417,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -1416,7 +1426,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
